--- a/biology/Botanique/Atraphaxis/Atraphaxis.xlsx
+++ b/biology/Botanique/Atraphaxis/Atraphaxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atraphaxis est un genre de plantes à fleurs appartenant à la famille des Polygonaceae qui comprend vingt-cinq espèces. Elles se rencontrent dans les zones méditerranéennes de l'Europe et en Afrique du Nord, ainsi que dans les zones steppiques d'Asie centrale, d'Asie du Sud-Ouest et du nord de l'Asie.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce genre a été étudié par Carl von Linné en 1753 dans son ouvrage intitulé Species plantarum[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre a été étudié par Carl von Linné en 1753 dans son ouvrage intitulé Species plantarum.
 Synonymes
 Physopyrum Popov
 Tragopyrum M.Bieb.
@@ -546,7 +560,7 @@
 Atraphaxis spinosa L. (espèce-type)
 Atraphaxis suaedifolia Jaub. &amp; Spach
 Atraphaxis teretifolia (Popov) Kom.
-Atraphaxis virgata (Regel) Krasn.[2]</t>
+Atraphaxis virgata (Regel) Krasn.</t>
         </is>
       </c>
     </row>
